--- a/hospiboard/data_sources/organisation.xlsx
+++ b/hospiboard/data_sources/organisation.xlsx
@@ -5,15 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margot/Google Drive/Toucan Toco Projets/Keyrus - OpenHub - Hospiboard/Hospiboard V2/Hospiboard/data_sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margot/projects/keel-billed/hospiboard/data_sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="460" windowWidth="14600" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5640" yWindow="460" windowWidth="14600" windowHeight="16440" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DMS" sheetId="1" r:id="rId1"/>
     <sheet name="technique" sheetId="2" r:id="rId2"/>
+    <sheet name="obstetrique" sheetId="3" r:id="rId3"/>
+    <sheet name="ambu" sheetId="5" r:id="rId4"/>
+    <sheet name="admin" sheetId="6" r:id="rId5"/>
+    <sheet name="numerique" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">technique!$A$1:$G$57</definedName>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="33">
   <si>
     <t>etablissement</t>
   </si>
@@ -99,26 +104,44 @@
     <t>ICR par salle d'intervention chirurgicale</t>
   </si>
   <si>
-    <t>01/01/2015</t>
+    <t>Région</t>
   </si>
   <si>
-    <t>01/01/2014</t>
+    <t>Catégorie</t>
   </si>
   <si>
-    <t>01/01/2013</t>
+    <t>Typologie</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>Etabl.</t>
   </si>
   <si>
-    <t>01/01/2011</t>
+    <t>Taux de césarienne</t>
+  </si>
+  <si>
+    <t>Taux de péridurale</t>
+  </si>
+  <si>
+    <t>Taux de chirurgie ambulatoire</t>
+  </si>
+  <si>
+    <t>Taux des 18 gestes marqueurs en chirurgie ambulatoire</t>
+  </si>
+  <si>
+    <t>Taux d'utilisation des places</t>
+  </si>
+  <si>
+    <t>Indice de facturation</t>
+  </si>
+  <si>
+    <t>Niveau d'atteinte des prérequis Hôpital Numérique</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +179,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF003399"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF666699"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF003399"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,26 +221,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2381,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2418,8 +2471,8 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
+      <c r="B2" s="7">
+        <v>2015</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -2441,8 +2494,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+      <c r="B3" s="7">
+        <v>2015</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2464,8 +2517,8 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+      <c r="B4" s="7">
+        <v>2015</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -2487,8 +2540,8 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
+      <c r="B5" s="7">
+        <v>2014</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -2510,8 +2563,8 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
+      <c r="B6" s="7">
+        <v>2014</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -2533,8 +2586,8 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
+      <c r="B7" s="7">
+        <v>2014</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -2556,8 +2609,8 @@
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
+      <c r="B8" s="7">
+        <v>2013</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2579,8 +2632,8 @@
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>24</v>
+      <c r="B9" s="7">
+        <v>2013</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2602,8 +2655,8 @@
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
+      <c r="B10" s="7">
+        <v>2013</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2625,8 +2678,8 @@
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
+      <c r="B11" s="7">
+        <v>2015</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -2648,8 +2701,8 @@
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
+      <c r="B12" s="7">
+        <v>2015</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -2671,8 +2724,8 @@
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
+      <c r="B13" s="7">
+        <v>2015</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -2694,8 +2747,8 @@
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
+      <c r="B14" s="7">
+        <v>2014</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -2717,8 +2770,8 @@
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
+      <c r="B15" s="7">
+        <v>2014</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2740,8 +2793,8 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>23</v>
+      <c r="B16" s="7">
+        <v>2014</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2763,8 +2816,8 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
+      <c r="B17" s="7">
+        <v>2013</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -2786,8 +2839,8 @@
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
+      <c r="B18" s="7">
+        <v>2013</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -2809,8 +2862,8 @@
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>24</v>
+      <c r="B19" s="7">
+        <v>2013</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -2832,8 +2885,8 @@
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>25</v>
+      <c r="B20" s="7">
+        <v>2012</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -2855,8 +2908,8 @@
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>25</v>
+      <c r="B21" s="7">
+        <v>2012</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -2878,8 +2931,8 @@
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
+      <c r="B22" s="7">
+        <v>2012</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -2901,8 +2954,8 @@
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
+      <c r="B23" s="7">
+        <v>2011</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -2924,8 +2977,8 @@
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
+      <c r="B24" s="7">
+        <v>2011</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -2947,8 +3000,8 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>26</v>
+      <c r="B25" s="7">
+        <v>2011</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -2970,8 +3023,8 @@
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
+      <c r="B26" s="7">
+        <v>2015</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -2993,8 +3046,8 @@
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>22</v>
+      <c r="B27" s="7">
+        <v>2015</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -3016,8 +3069,8 @@
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>23</v>
+      <c r="B28" s="7">
+        <v>2014</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3039,8 +3092,8 @@
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>23</v>
+      <c r="B29" s="7">
+        <v>2014</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -3062,8 +3115,8 @@
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
+      <c r="B30" s="7">
+        <v>2013</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -3085,8 +3138,8 @@
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>24</v>
+      <c r="B31" s="7">
+        <v>2013</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -3108,8 +3161,8 @@
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>22</v>
+      <c r="B32" s="7">
+        <v>2015</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -3131,8 +3184,8 @@
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>22</v>
+      <c r="B33" s="7">
+        <v>2015</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
@@ -3154,8 +3207,8 @@
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>23</v>
+      <c r="B34" s="7">
+        <v>2014</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
@@ -3177,8 +3230,8 @@
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>23</v>
+      <c r="B35" s="7">
+        <v>2014</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
@@ -3200,8 +3253,8 @@
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>24</v>
+      <c r="B36" s="7">
+        <v>2013</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
@@ -3223,8 +3276,8 @@
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>24</v>
+      <c r="B37" s="7">
+        <v>2013</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -3246,8 +3299,8 @@
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>25</v>
+      <c r="B38" s="7">
+        <v>2012</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -3269,8 +3322,8 @@
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>25</v>
+      <c r="B39" s="7">
+        <v>2012</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
@@ -3292,8 +3345,8 @@
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>26</v>
+      <c r="B40" s="7">
+        <v>2011</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
@@ -3315,8 +3368,8 @@
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>26</v>
+      <c r="B41" s="7">
+        <v>2011</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -3338,8 +3391,8 @@
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>22</v>
+      <c r="B42" s="7">
+        <v>2015</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -3361,8 +3414,8 @@
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>22</v>
+      <c r="B43" s="7">
+        <v>2015</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -3384,8 +3437,8 @@
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>23</v>
+      <c r="B44" s="7">
+        <v>2014</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -3407,8 +3460,8 @@
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>23</v>
+      <c r="B45" s="7">
+        <v>2014</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -3430,8 +3483,8 @@
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>24</v>
+      <c r="B46" s="7">
+        <v>2013</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -3453,8 +3506,8 @@
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>24</v>
+      <c r="B47" s="7">
+        <v>2013</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
@@ -3476,8 +3529,8 @@
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>22</v>
+      <c r="B48" s="7">
+        <v>2015</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
@@ -3499,8 +3552,8 @@
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>22</v>
+      <c r="B49" s="7">
+        <v>2015</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
@@ -3522,8 +3575,8 @@
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>23</v>
+      <c r="B50" s="7">
+        <v>2014</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
@@ -3545,8 +3598,8 @@
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>23</v>
+      <c r="B51" s="7">
+        <v>2014</v>
       </c>
       <c r="C51" t="s">
         <v>21</v>
@@ -3568,8 +3621,8 @@
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>24</v>
+      <c r="B52" s="7">
+        <v>2013</v>
       </c>
       <c r="C52" t="s">
         <v>21</v>
@@ -3591,8 +3644,8 @@
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>24</v>
+      <c r="B53" s="7">
+        <v>2013</v>
       </c>
       <c r="C53" t="s">
         <v>21</v>
@@ -3614,8 +3667,8 @@
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>25</v>
+      <c r="B54" s="7">
+        <v>2012</v>
       </c>
       <c r="C54" t="s">
         <v>21</v>
@@ -3637,8 +3690,8 @@
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>25</v>
+      <c r="B55" s="7">
+        <v>2012</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
@@ -3660,8 +3713,8 @@
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>26</v>
+      <c r="B56" s="7">
+        <v>2011</v>
       </c>
       <c r="C56" t="s">
         <v>21</v>
@@ -3683,8 +3736,8 @@
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>26</v>
+      <c r="B57" s="7">
+        <v>2011</v>
       </c>
       <c r="C57" t="s">
         <v>21</v>
@@ -3853,4 +3906,5314 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17.07</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="4">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4">
+        <v>17.29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="4">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="4">
+        <v>15.45</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4">
+        <v>22.37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4">
+        <v>21.95</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22.38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4">
+        <v>22.06</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="4">
+        <v>21.92</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4">
+        <v>18.25</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="4">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="4">
+        <v>18.12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4">
+        <v>17.84</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4">
+        <v>26.65</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4">
+        <v>25.68</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="4">
+        <v>26.86</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4">
+        <v>26.45</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="4">
+        <v>59.93</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="4">
+        <v>60.7</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="4">
+        <v>64.14</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="4">
+        <v>65.45</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="4">
+        <v>82.53</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4">
+        <v>82.55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="4">
+        <v>84.04</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>2014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4">
+        <v>85.01</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="4">
+        <v>84.81</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2011</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="4">
+        <v>75.25</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="4">
+        <v>75</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4">
+        <v>76.13</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" s="4">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="4">
+        <v>77.83</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2011</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="4">
+        <v>90.71</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>2012</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="4">
+        <v>91.01</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>2013</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="4">
+        <v>91.9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>2014</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="4">
+        <v>91.62</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2015</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="4">
+        <v>91.11</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4">
+        <v>20.83</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>22.04</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4">
+        <v>24.13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4">
+        <v>26.24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4">
+        <v>53.01</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4">
+        <v>52.85</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4">
+        <v>54.51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4">
+        <v>57.11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="4">
+        <v>58.65</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4">
+        <v>40.01</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43.46</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
+        <v>47.16</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="4">
+        <v>62.25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="4">
+        <v>64.06</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="4">
+        <v>66.22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="4">
+        <v>68</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4">
+        <v>69.59</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>2014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2011</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4">
+        <v>42.59</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="4">
+        <v>47.27</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="4">
+        <v>43.81</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44.66</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="4">
+        <v>46.76</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>2011</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="4">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>2012</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="4">
+        <v>100</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>2013</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="4">
+        <v>100</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>2014</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4">
+        <v>100</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>2015</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4">
+        <v>100</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>2011</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="4">
+        <v>51.52</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43">
+        <v>2012</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="4">
+        <v>58.38</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>2013</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="4">
+        <v>62.36</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>2014</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="4">
+        <v>65.73</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>2015</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="4">
+        <v>68.87</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>2011</v>
+      </c>
+      <c r="C47" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>2012</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="4">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>2013</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="4">
+        <v>81.86</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>2014</v>
+      </c>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="4">
+        <v>83.62</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>2015</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="4">
+        <v>86.29</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>2011</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="4">
+        <v>65.13</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>2012</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="4">
+        <v>67.78</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>2013</v>
+      </c>
+      <c r="C54" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="4">
+        <v>69.92</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>2014</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>2015</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="4">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>2011</v>
+      </c>
+      <c r="C57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="4">
+        <v>82.01</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>2012</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="4">
+        <v>83.77</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>2013</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="4">
+        <v>86.08</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>2014</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="4">
+        <v>87.7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2015</v>
+      </c>
+      <c r="C61" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="4">
+        <v>88.73</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>2011</v>
+      </c>
+      <c r="C62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>2012</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>2013</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>2014</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>2015</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>2011</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="4">
+        <v>88.22</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>2012</v>
+      </c>
+      <c r="C68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="4">
+        <v>91.9</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>2013</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="4">
+        <v>95.35</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>2014</v>
+      </c>
+      <c r="C70" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="4">
+        <v>98.31</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>2015</v>
+      </c>
+      <c r="C71" t="s">
+        <v>29</v>
+      </c>
+      <c r="D71" s="4">
+        <v>98.58</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>2011</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" s="4">
+        <v>89.8</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>2012</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="4">
+        <v>98.2</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>2013</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="4">
+        <v>98</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>2014</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="4">
+        <v>121.1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>2015</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>2011</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="4">
+        <v>48</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>2012</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>2013</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>2014</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="4">
+        <v>53.8</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>2015</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>2011</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="4">
+        <v>132.5</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>2012</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="4">
+        <v>117.6</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>2013</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>2014</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>2015</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>2011</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>2012</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>2013</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>2014</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>2015</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>2011</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" s="4">
+        <v>140.75</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>2012</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="4">
+        <v>136.6</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94">
+        <v>2013</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" s="4">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95">
+        <v>2014</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" s="4">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96">
+        <v>2015</v>
+      </c>
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" s="4">
+        <v>133.94999999999999</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97">
+        <v>2011</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" s="4">
+        <v>24.65</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98">
+        <v>2012</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99">
+        <v>2013</v>
+      </c>
+      <c r="C99" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="4">
+        <v>21.85</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>2014</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101">
+        <v>2015</v>
+      </c>
+      <c r="C101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102">
+        <v>2011</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" s="4">
+        <v>97.85</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103">
+        <v>2012</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="4">
+        <v>90.3</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104">
+        <v>2013</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" s="4">
+        <v>100.2</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105">
+        <v>2014</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" s="4">
+        <v>105</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106">
+        <v>2015</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="4">
+        <v>107.1</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10.35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>2014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2011</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2011</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2012</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2013</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2014</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2012</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2014</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>2015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>2011</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2012</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>2014</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>2012</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>2014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>2015</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2011</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>2012</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>2013</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>2014</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2015</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
+        <v>17.07</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22.37</v>
+      </c>
+      <c r="E3" s="4">
+        <v>18.25</v>
+      </c>
+      <c r="F3" s="4">
+        <v>26.65</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21.95</v>
+      </c>
+      <c r="E4" s="4">
+        <v>17.95</v>
+      </c>
+      <c r="F4" s="4">
+        <v>25.68</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
+        <v>17.29</v>
+      </c>
+      <c r="D5" s="4">
+        <v>22.38</v>
+      </c>
+      <c r="E5" s="4">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>26.86</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>22.06</v>
+      </c>
+      <c r="E6" s="4">
+        <v>18.12</v>
+      </c>
+      <c r="F6" s="4">
+        <v>26.45</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4">
+        <v>15.45</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21.92</v>
+      </c>
+      <c r="E7" s="4">
+        <v>17.84</v>
+      </c>
+      <c r="F7" s="4">
+        <v>26.3</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>59.93</v>
+      </c>
+      <c r="D17" s="4">
+        <v>82.53</v>
+      </c>
+      <c r="E17" s="4">
+        <v>75.25</v>
+      </c>
+      <c r="F17" s="4">
+        <v>90.71</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4">
+        <v>60.7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>82.55</v>
+      </c>
+      <c r="E18" s="4">
+        <v>75</v>
+      </c>
+      <c r="F18" s="4">
+        <v>91.01</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4">
+        <v>64.8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>84.04</v>
+      </c>
+      <c r="E19" s="4">
+        <v>76.13</v>
+      </c>
+      <c r="F19" s="4">
+        <v>91.9</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
+        <v>64.14</v>
+      </c>
+      <c r="D20" s="4">
+        <v>85.01</v>
+      </c>
+      <c r="E20" s="4">
+        <v>76.239999999999995</v>
+      </c>
+      <c r="F20" s="4">
+        <v>91.62</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4">
+        <v>65.45</v>
+      </c>
+      <c r="D21" s="4">
+        <v>84.81</v>
+      </c>
+      <c r="E21" s="4">
+        <v>77.83</v>
+      </c>
+      <c r="F21" s="4">
+        <v>91.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100</v>
+      </c>
+      <c r="C27" s="4">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="D27" s="4">
+        <v>53.01</v>
+      </c>
+      <c r="E27" s="4">
+        <v>40.01</v>
+      </c>
+      <c r="F27" s="4">
+        <v>62.25</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="H27" s="4">
+        <v>42.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100</v>
+      </c>
+      <c r="C28" s="4">
+        <v>20.83</v>
+      </c>
+      <c r="D28" s="4">
+        <v>52.85</v>
+      </c>
+      <c r="E28" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="F28" s="4">
+        <v>64.06</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="H28" s="4">
+        <v>47.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4">
+        <v>22.04</v>
+      </c>
+      <c r="D29" s="4">
+        <v>54.51</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43.46</v>
+      </c>
+      <c r="F29" s="4">
+        <v>66.22</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="H29" s="4">
+        <v>43.81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B30" s="4">
+        <v>100</v>
+      </c>
+      <c r="C30" s="4">
+        <v>24.13</v>
+      </c>
+      <c r="D30" s="4">
+        <v>57.11</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45.83</v>
+      </c>
+      <c r="F30" s="4">
+        <v>68</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="H30" s="4">
+        <v>44.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B31" s="4">
+        <v>100</v>
+      </c>
+      <c r="C31" s="4">
+        <v>26.24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>58.65</v>
+      </c>
+      <c r="E31" s="4">
+        <v>47.16</v>
+      </c>
+      <c r="F31" s="4">
+        <v>69.59</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1.67</v>
+      </c>
+      <c r="H31" s="4">
+        <v>46.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100</v>
+      </c>
+      <c r="C36" s="4">
+        <v>51.52</v>
+      </c>
+      <c r="D36" s="4">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="E36" s="4">
+        <v>65.13</v>
+      </c>
+      <c r="F36" s="4">
+        <v>82.01</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>88.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100</v>
+      </c>
+      <c r="C37" s="4">
+        <v>58.38</v>
+      </c>
+      <c r="D37" s="4">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="E37" s="4">
+        <v>67.78</v>
+      </c>
+      <c r="F37" s="4">
+        <v>83.77</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B38" s="4">
+        <v>100</v>
+      </c>
+      <c r="C38" s="4">
+        <v>62.36</v>
+      </c>
+      <c r="D38" s="4">
+        <v>81.86</v>
+      </c>
+      <c r="E38" s="4">
+        <v>69.92</v>
+      </c>
+      <c r="F38" s="4">
+        <v>86.08</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>95.35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B39" s="4">
+        <v>100</v>
+      </c>
+      <c r="C39" s="4">
+        <v>65.73</v>
+      </c>
+      <c r="D39" s="4">
+        <v>83.62</v>
+      </c>
+      <c r="E39" s="4">
+        <v>73.2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>87.7</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4">
+        <v>98.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B40" s="4">
+        <v>100</v>
+      </c>
+      <c r="C40" s="4">
+        <v>68.87</v>
+      </c>
+      <c r="D40" s="4">
+        <v>86.29</v>
+      </c>
+      <c r="E40" s="4">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="F40" s="4">
+        <v>88.73</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4">
+        <v>98.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B46" s="4">
+        <v>89.8</v>
+      </c>
+      <c r="C46" s="4">
+        <v>48</v>
+      </c>
+      <c r="D46" s="4">
+        <v>132.5</v>
+      </c>
+      <c r="E46" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="F46" s="4">
+        <v>140.75</v>
+      </c>
+      <c r="G46" s="4">
+        <v>24.65</v>
+      </c>
+      <c r="H46" s="4">
+        <v>97.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B47" s="4">
+        <v>98.2</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>117.6</v>
+      </c>
+      <c r="E47" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="F47" s="4">
+        <v>136.6</v>
+      </c>
+      <c r="G47" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="H47" s="4">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B48" s="4">
+        <v>98</v>
+      </c>
+      <c r="C48" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="D48" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="F48" s="4">
+        <v>132.19999999999999</v>
+      </c>
+      <c r="G48" s="4">
+        <v>21.85</v>
+      </c>
+      <c r="H48" s="4">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B49" s="4">
+        <v>121.1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>53.8</v>
+      </c>
+      <c r="D49" s="4">
+        <v>115.4</v>
+      </c>
+      <c r="E49" s="4">
+        <v>56.1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="G49" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="H49" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B50" s="4">
+        <v>113.2</v>
+      </c>
+      <c r="C50" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="D50" s="4">
+        <v>118.2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="F50" s="4">
+        <v>133.94999999999999</v>
+      </c>
+      <c r="G50" s="4">
+        <v>24.8</v>
+      </c>
+      <c r="H50" s="4">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D57" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="E57" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="F57" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H57" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D58" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E58" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="F58" s="4">
+        <v>39.4</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H58" s="4">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D59" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="E59" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="F59" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G59" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="4">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="D60" s="4">
+        <v>10.35</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="H60" s="4">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D61" s="4">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P11&amp;anfocus=2011&amp;tab=3"/>
+    <hyperlink ref="A18" r:id="rId2" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P11&amp;anfocus=2012&amp;tab=3"/>
+    <hyperlink ref="A19" r:id="rId3" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P11&amp;anfocus=2013&amp;tab=3"/>
+    <hyperlink ref="A20" r:id="rId4" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P11&amp;anfocus=2014&amp;tab=3"/>
+    <hyperlink ref="A21" r:id="rId5" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P11&amp;anfocus=2015&amp;tab=3"/>
+    <hyperlink ref="A27" r:id="rId6" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P12&amp;anfocus=2011&amp;tab=3"/>
+    <hyperlink ref="A28" r:id="rId7" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P12&amp;anfocus=2012&amp;tab=3"/>
+    <hyperlink ref="A29" r:id="rId8" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P12&amp;anfocus=2013&amp;tab=3"/>
+    <hyperlink ref="A30" r:id="rId9" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P12&amp;anfocus=2014&amp;tab=3"/>
+    <hyperlink ref="A31" r:id="rId10" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P12&amp;anfocus=2015&amp;tab=3"/>
+    <hyperlink ref="A36" r:id="rId11" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P13&amp;anfocus=2011&amp;tab=3"/>
+    <hyperlink ref="A37" r:id="rId12" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P13&amp;anfocus=2012&amp;tab=3"/>
+    <hyperlink ref="A38" r:id="rId13" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P13&amp;anfocus=2013&amp;tab=3"/>
+    <hyperlink ref="A39" r:id="rId14" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P13&amp;anfocus=2014&amp;tab=3"/>
+    <hyperlink ref="A40" r:id="rId15" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P13&amp;anfocus=2015&amp;tab=3"/>
+    <hyperlink ref="A46" r:id="rId16" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P14&amp;anfocus=2011&amp;tab=3"/>
+    <hyperlink ref="A47" r:id="rId17" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P14&amp;anfocus=2012&amp;tab=3"/>
+    <hyperlink ref="A48" r:id="rId18" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P14&amp;anfocus=2013&amp;tab=3"/>
+    <hyperlink ref="A49" r:id="rId19" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P14&amp;anfocus=2014&amp;tab=3"/>
+    <hyperlink ref="A50" r:id="rId20" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P14&amp;anfocus=2015&amp;tab=3"/>
+    <hyperlink ref="A57" r:id="rId21" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P15&amp;anfocus=2011&amp;tab=3"/>
+    <hyperlink ref="A58" r:id="rId22" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P15&amp;anfocus=2012&amp;tab=3"/>
+    <hyperlink ref="A59" r:id="rId23" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P15&amp;anfocus=2013&amp;tab=3"/>
+    <hyperlink ref="A60" r:id="rId24" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P15&amp;anfocus=2014&amp;tab=3"/>
+    <hyperlink ref="A61" r:id="rId25" display="http://hospidiag.atih.sante.fr/cgi-bin/broker?_service=hospidiag&amp;_program=hd.hospidiag.sas&amp;_debug=0&amp;_sessionid=/dhxAvfSYl6&amp;_port=5198&amp;finess=010007300&amp;ind=P15&amp;anfocus=2015&amp;tab=3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>